--- a/sm_core/user_batch.xlsx
+++ b/sm_core/user_batch.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://appriver3651017166-my.sharepoint.com/personal/zach_sowellmanagement_com1/Documents/_RStudio_Projects/sm_core - copy/sm_core/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Career\github\portfolio\sm_core\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="48" documentId="8_{81AF5409-BEF9-4434-99EB-440FFBBB07BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{14445ACC-835B-45CC-861C-25DE627690E8}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE4CBB53-636F-4F30-8209-90268FA3705C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2CDDFB42-AA00-45EE-AF78-8D91B42884C6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{2CDDFB42-AA00-45EE-AF78-8D91B42884C6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -23,9 +23,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -34,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>userName</t>
   </si>
@@ -55,82 +53,13 @@
   </si>
   <si>
     <t>clientID</t>
-  </si>
-  <si>
-    <t>rsgrosch@mac.com</t>
-  </si>
-  <si>
-    <t>Richard</t>
-  </si>
-  <si>
-    <t>Grosch</t>
-  </si>
-  <si>
-    <t>z053286</t>
-  </si>
-  <si>
-    <t>z052317</t>
-  </si>
-  <si>
-    <t>z05143439</t>
-  </si>
-  <si>
-    <t>bravasd@aol.com</t>
-  </si>
-  <si>
-    <t>mceneanypaul@gmail.com</t>
-  </si>
-  <si>
-    <t>lisa_ortman@yahoo.com</t>
-  </si>
-  <si>
-    <t>shirleylorraine65@gmail.com</t>
-  </si>
-  <si>
-    <t>rsgrosch</t>
-  </si>
-  <si>
-    <t>Sylvia</t>
-  </si>
-  <si>
-    <t>Harvey</t>
-  </si>
-  <si>
-    <t>Paul</t>
-  </si>
-  <si>
-    <t>McEneany</t>
-  </si>
-  <si>
-    <t>Lisa</t>
-  </si>
-  <si>
-    <t>Ortman</t>
-  </si>
-  <si>
-    <t>Shirley</t>
-  </si>
-  <si>
-    <t>Tillinghast</t>
-  </si>
-  <si>
-    <t>z05186559</t>
-  </si>
-  <si>
-    <t>z05169455</t>
-  </si>
-  <si>
-    <t>z05182118</t>
-  </si>
-  <si>
-    <t>z05151937</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -146,38 +75,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF00273B"/>
-      <name val="Open Sans"/>
-      <family val="2"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -189,23 +98,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="2" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="3">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{F58015A7-E50A-49E8-87C9-79579B6A7908}"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{F58015A7-E50A-49E8-87C9-79579B6A7908}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -517,10 +419,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55505716-09F0-4C41-83A8-A5906917F8E6}">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="A2" sqref="A2:XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -557,135 +459,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A4" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A5" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A6" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" display="mailto:rsgrosch@mac.com" xr:uid="{FB138388-3A3F-47F6-9888-642487C38040}"/>
-    <hyperlink ref="A3" r:id="rId2" display="mailto:bravasd@aol.com" xr:uid="{D4867818-545D-4BEC-8A7B-78701314BF9E}"/>
-    <hyperlink ref="A4" r:id="rId3" display="mailto:mceneanypaul@gmail.com" xr:uid="{52A80A57-6C9D-4880-90D0-B751F928D2C2}"/>
-    <hyperlink ref="A5" r:id="rId4" display="mailto:lisa_ortman@yahoo.com" xr:uid="{BB317D1E-4012-4FE0-A64F-C28A6AF53950}"/>
-    <hyperlink ref="A6" r:id="rId5" display="mailto:shirleylorraine65@gmail.com" xr:uid="{1D409696-6682-4ED4-AA0F-7F4173083098}"/>
-    <hyperlink ref="D3" r:id="rId6" display="mailto:bravasd@aol.com" xr:uid="{C36A193E-330F-4BA4-8003-D13F9C78A026}"/>
-    <hyperlink ref="D4" r:id="rId7" display="mailto:mceneanypaul@gmail.com" xr:uid="{8EA58197-C823-4B56-AFA9-968A1E2A695C}"/>
-    <hyperlink ref="D5" r:id="rId8" display="mailto:lisa_ortman@yahoo.com" xr:uid="{9D1B6DDF-51EB-45CD-A37D-9BB65A18F53A}"/>
-    <hyperlink ref="D6" r:id="rId9" display="mailto:shirleylorraine65@gmail.com" xr:uid="{33F4BCEC-EB8C-43DF-9651-435C4F31B4B0}"/>
-  </hyperlinks>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId10"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>